--- a/Project_SPC_Ver5/ParserGenerator/IonosphereData.xlsx
+++ b/Project_SPC_Ver5/ParserGenerator/IonosphereData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwuwildcat-my.sharepoint.com/personal/worlanda_cwu_edu/Documents/CS DEGREE/Research Assistant/Git Repos/cs556_project/Project_SPC_Ver5/ParserGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF30211-96CF-3D48-B367-7F2B16FC753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{CFF30211-96CF-3D48-B367-7F2B16FC753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEAB8511-0670-4224-BAF2-A144BABD926F}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{443283F2-2ADF-1A4D-BA2F-011316266FC3}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15285" xr2:uid="{443283F2-2ADF-1A4D-BA2F-011316266FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ionosphere" localSheetId="0">Sheet1!$A$2:$AI$352</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="35">
   <si>
     <t>g</t>
   </si>
@@ -92,109 +91,103 @@
     <t>b</t>
   </si>
   <si>
-    <t>X1</t>
+    <t>class</t>
   </si>
   <si>
-    <t>X2</t>
+    <t>A</t>
   </si>
   <si>
-    <t>X3</t>
+    <t>D</t>
   </si>
   <si>
-    <t>X4</t>
+    <t>W</t>
   </si>
   <si>
-    <t>X5</t>
+    <t>E</t>
   </si>
   <si>
-    <t>X6</t>
+    <t>F</t>
   </si>
   <si>
-    <t>X7</t>
+    <t>G</t>
   </si>
   <si>
-    <t>X8</t>
+    <t>H</t>
   </si>
   <si>
-    <t>X9</t>
+    <t>I</t>
   </si>
   <si>
-    <t>X10</t>
+    <t>J</t>
   </si>
   <si>
-    <t>X11</t>
+    <t>K</t>
   </si>
   <si>
-    <t>X12</t>
+    <t>L</t>
   </si>
   <si>
-    <t>X13</t>
+    <t>M</t>
   </si>
   <si>
-    <t>X14</t>
+    <t>N</t>
   </si>
   <si>
-    <t>X15</t>
+    <t>O</t>
   </si>
   <si>
-    <t>X16</t>
+    <t>P</t>
   </si>
   <si>
-    <t>X27</t>
+    <t>Q</t>
   </si>
   <si>
-    <t>X17</t>
+    <t>R</t>
   </si>
   <si>
-    <t>X18</t>
+    <t>S</t>
   </si>
   <si>
-    <t>X19</t>
+    <t>T</t>
   </si>
   <si>
-    <t>X20</t>
+    <t>U</t>
   </si>
   <si>
-    <t>X21</t>
+    <t>V</t>
   </si>
   <si>
-    <t>X22</t>
+    <t>X</t>
   </si>
   <si>
-    <t>X23</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>X24</t>
+    <t>Z</t>
   </si>
   <si>
-    <t>X25</t>
+    <t>AA</t>
   </si>
   <si>
-    <t>X26</t>
+    <t>AB</t>
   </si>
   <si>
-    <t>X28</t>
+    <t>AC</t>
   </si>
   <si>
-    <t>X29</t>
+    <t>AD</t>
   </si>
   <si>
-    <t>X30</t>
+    <t>AE</t>
   </si>
   <si>
-    <t>X31</t>
+    <t>AF</t>
   </si>
   <si>
-    <t>X32</t>
+    <t>AG</t>
   </si>
   <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>class</t>
+    <t>AH</t>
   </si>
 </sst>
 </file>
@@ -553,28 +546,30 @@
   <dimension ref="A1:AI352"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="str">
+        <f>CHAR(CODE(A1)+1)</f>
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CHAR(CODE(B1)+1)</f>
+        <v>C</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -613,64 +608,64 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
-        <v>35</v>
-      </c>
       <c r="AI1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -777,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -884,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -991,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1205,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1740,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2061,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2168,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2489,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2703,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2810,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3131,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3238,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3345,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3559,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3666,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4094,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4201,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4415,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4522,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4629,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4736,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4950,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5057,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5164,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5271,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5378,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5485,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5699,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5806,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5913,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6020,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -6127,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6341,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6448,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6555,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6662,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6769,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -6876,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7090,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -7197,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -7304,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -7411,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7625,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7732,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -7839,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -8053,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -8160,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -8267,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -8374,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -8481,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8588,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -8695,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -8802,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -8909,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -9016,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -9123,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -9230,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9337,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -9444,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -9551,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9658,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9765,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9872,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9979,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -10086,7 +10081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -10193,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -10300,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -10407,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -10514,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -10621,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -10728,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -10835,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -10942,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -11049,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -11156,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -11263,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -11370,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -11477,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -11584,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -11691,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -11798,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -11905,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -12012,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -12119,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -12226,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -12333,7 +12328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -12440,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -12547,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -12654,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -12761,7 +12756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -12868,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -12975,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -13082,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -13189,7 +13184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -13296,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -13403,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -13510,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -13617,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -13724,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -13831,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -13938,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -14045,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -14152,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -14259,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -14366,7 +14361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -14473,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -14580,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -14687,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -14794,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -14901,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -15008,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -15115,7 +15110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -15222,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -15329,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -15436,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -15543,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -15650,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -15757,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -15864,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -15971,7 +15966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -16078,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -16185,7 +16180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -16292,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -16399,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -16506,7 +16501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -16613,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -16720,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -16827,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -16934,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -17041,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -17148,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -17255,7 +17250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -17362,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -17469,7 +17464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -17576,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -17683,7 +17678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -17790,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -17897,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -18004,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -18111,7 +18106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -18218,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -18325,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -18432,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -18539,7 +18534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -18646,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -18753,7 +18748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -18860,7 +18855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -18967,7 +18962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -19074,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -19181,7 +19176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -19288,7 +19283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -19395,7 +19390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -19502,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -19609,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -19716,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -19823,7 +19818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -19930,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -20037,7 +20032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -20144,7 +20139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -20251,7 +20246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -20358,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -20465,7 +20460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -20572,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -20679,7 +20674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -20786,7 +20781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -20893,7 +20888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -21000,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -21107,7 +21102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -21214,7 +21209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -21321,7 +21316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -21428,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -21535,7 +21530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -21642,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -21749,7 +21744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -21856,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -21963,7 +21958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -22070,7 +22065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -22177,7 +22172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -22284,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -22391,7 +22386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -22498,7 +22493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -22605,7 +22600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -22712,7 +22707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -22819,7 +22814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -22926,7 +22921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -23033,7 +23028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -23140,7 +23135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -23247,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -23354,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -23461,7 +23456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -23568,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -23675,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -23782,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -23889,7 +23884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -23996,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -24103,7 +24098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -24210,7 +24205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -24317,7 +24312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -24424,7 +24419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -24531,7 +24526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -24638,7 +24633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0</v>
       </c>
@@ -24745,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -24852,7 +24847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -24959,7 +24954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -25066,7 +25061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -25173,7 +25168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -25280,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -25387,7 +25382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -25494,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0</v>
       </c>
@@ -25601,7 +25596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -25708,7 +25703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -25815,7 +25810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -25922,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -26029,7 +26024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -26136,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -26243,7 +26238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -26350,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -26457,7 +26452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -26564,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -26671,7 +26666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -26778,7 +26773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -26885,7 +26880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -26992,7 +26987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -27099,7 +27094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -27206,7 +27201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0</v>
       </c>
@@ -27313,7 +27308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -27420,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -27527,7 +27522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -27634,7 +27629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -27741,7 +27736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -27848,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -27955,7 +27950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -28062,7 +28057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -28169,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -28276,7 +28271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -28383,7 +28378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -28490,7 +28485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -28597,7 +28592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -28704,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -28811,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -28918,7 +28913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -29025,7 +29020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -29132,7 +29127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -29239,7 +29234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -29346,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -29453,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -29560,7 +29555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -29667,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -29774,7 +29769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -29881,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -29988,7 +29983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -30095,7 +30090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
@@ -30202,7 +30197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -30309,7 +30304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -30416,7 +30411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -30523,7 +30518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -30630,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -30737,7 +30732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -30844,7 +30839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -30951,7 +30946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -31058,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -31165,7 +31160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -31272,7 +31267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -31379,7 +31374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -31486,7 +31481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -31593,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -31700,7 +31695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -31807,7 +31802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -31914,7 +31909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -32021,7 +32016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -32128,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -32235,7 +32230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -32342,7 +32337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -32449,7 +32444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -32556,7 +32551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -32663,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
@@ -32770,7 +32765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -32877,7 +32872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -32984,7 +32979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -33091,7 +33086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -33198,7 +33193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -33305,7 +33300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -33412,7 +33407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -33519,7 +33514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -33626,7 +33621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -33733,7 +33728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -33840,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -33947,7 +33942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -34054,7 +34049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -34161,7 +34156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -34268,7 +34263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -34375,7 +34370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -34482,7 +34477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -34589,7 +34584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -34696,7 +34691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -34803,7 +34798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -34910,7 +34905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -35017,7 +35012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -35124,7 +35119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -35231,7 +35226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1</v>
       </c>
@@ -35338,7 +35333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -35445,7 +35440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -35552,7 +35547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -35659,7 +35654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -35766,7 +35761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -35873,7 +35868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -35980,7 +35975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
@@ -36087,7 +36082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -36194,7 +36189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -36301,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -36408,7 +36403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -36515,7 +36510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1</v>
       </c>
@@ -36622,7 +36617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -36729,7 +36724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -36836,7 +36831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1</v>
       </c>
@@ -36943,7 +36938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -37050,7 +37045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
@@ -37157,7 +37152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1</v>
       </c>
@@ -37264,7 +37259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -37371,7 +37366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1</v>
       </c>
@@ -37478,7 +37473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1</v>
       </c>
@@ -37585,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1</v>
       </c>
@@ -37692,7 +37687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -37799,7 +37794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -37906,7 +37901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -38013,7 +38008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -38120,7 +38115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -38229,5 +38224,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>